--- a/Book_Online_000/Default.xlsx
+++ b/Book_Online_000/Default.xlsx
@@ -12,17 +12,6 @@
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,27 +467,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.56640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.41796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1">
-      <c t="s">
-        <v>0</v>
-      </c>
-      <c t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book_Online_000/Default.xlsx
+++ b/Book_Online_000/Default.xlsx
@@ -469,7 +469,9 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
